--- a/natmiOut/OldD7/LR-pairs_lrc2p/Spp1-Itgb5.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Spp1-Itgb5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itgb5</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>45.5834107870409</v>
+        <v>12.486902</v>
       </c>
       <c r="H2">
-        <v>45.5834107870409</v>
+        <v>37.460706</v>
       </c>
       <c r="I2">
-        <v>0.07934339828917843</v>
+        <v>0.01504353194025314</v>
       </c>
       <c r="J2">
-        <v>0.07934339828917843</v>
+        <v>0.01504353194025314</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.86031452708108</v>
+        <v>9.460162333333333</v>
       </c>
       <c r="N2">
-        <v>8.86031452708108</v>
+        <v>28.380487</v>
       </c>
       <c r="O2">
-        <v>0.08321300777838372</v>
+        <v>0.08197024919772995</v>
       </c>
       <c r="P2">
-        <v>0.08321300777838372</v>
+        <v>0.08197024919772995</v>
       </c>
       <c r="Q2">
-        <v>403.8833567903229</v>
+        <v>118.1281199604247</v>
       </c>
       <c r="R2">
-        <v>403.8833567903229</v>
+        <v>1063.153079643822</v>
       </c>
       <c r="S2">
-        <v>0.006602402819000802</v>
+        <v>0.00123312206195656</v>
       </c>
       <c r="T2">
-        <v>0.006602402819000802</v>
+        <v>0.00123312206195656</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>45.5834107870409</v>
+        <v>12.486902</v>
       </c>
       <c r="H3">
-        <v>45.5834107870409</v>
+        <v>37.460706</v>
       </c>
       <c r="I3">
-        <v>0.07934339828917843</v>
+        <v>0.01504353194025314</v>
       </c>
       <c r="J3">
-        <v>0.07934339828917843</v>
+        <v>0.01504353194025314</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.0976596177799</v>
+        <v>46.18256633333333</v>
       </c>
       <c r="N3">
-        <v>46.0976596177799</v>
+        <v>138.547699</v>
       </c>
       <c r="O3">
-        <v>0.4329332662644541</v>
+        <v>0.4001618933742075</v>
       </c>
       <c r="P3">
-        <v>0.4329332662644541</v>
+        <v>0.4001618933742075</v>
       </c>
       <c r="Q3">
-        <v>2101.288554678448</v>
+        <v>576.6771799128327</v>
       </c>
       <c r="R3">
-        <v>2101.288554678448</v>
+        <v>5190.094619215494</v>
       </c>
       <c r="S3">
-        <v>0.03435039657785552</v>
+        <v>0.006019848224247061</v>
       </c>
       <c r="T3">
-        <v>0.03435039657785552</v>
+        <v>0.006019848224247061</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>45.5834107870409</v>
+        <v>12.486902</v>
       </c>
       <c r="H4">
-        <v>45.5834107870409</v>
+        <v>37.460706</v>
       </c>
       <c r="I4">
-        <v>0.07934339828917843</v>
+        <v>0.01504353194025314</v>
       </c>
       <c r="J4">
-        <v>0.07934339828917843</v>
+        <v>0.01504353194025314</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.6561722693769</v>
+        <v>51.40166966666666</v>
       </c>
       <c r="N4">
-        <v>45.6561722693769</v>
+        <v>154.205009</v>
       </c>
       <c r="O4">
-        <v>0.4287869698723305</v>
+        <v>0.4453842886934318</v>
       </c>
       <c r="P4">
-        <v>0.4287869698723305</v>
+        <v>0.4453842886934319</v>
       </c>
       <c r="Q4">
-        <v>2081.164055518912</v>
+        <v>641.8476117640394</v>
       </c>
       <c r="R4">
-        <v>2081.164055518912</v>
+        <v>5776.628505876354</v>
       </c>
       <c r="S4">
-        <v>0.03402141533179027</v>
+        <v>0.006700152772646567</v>
       </c>
       <c r="T4">
-        <v>0.03402141533179027</v>
+        <v>0.006700152772646568</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>45.5834107870409</v>
+        <v>12.486902</v>
       </c>
       <c r="H5">
-        <v>45.5834107870409</v>
+        <v>37.460706</v>
       </c>
       <c r="I5">
-        <v>0.07934339828917843</v>
+        <v>0.01504353194025314</v>
       </c>
       <c r="J5">
-        <v>0.07934339828917843</v>
+        <v>0.01504353194025314</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.8633715079388</v>
+        <v>8.365307333333334</v>
       </c>
       <c r="N5">
-        <v>5.8633715079388</v>
+        <v>25.095922</v>
       </c>
       <c r="O5">
-        <v>0.05506675608483171</v>
+        <v>0.07248356873463072</v>
       </c>
       <c r="P5">
-        <v>0.05506675608483171</v>
+        <v>0.07248356873463073</v>
       </c>
       <c r="Q5">
-        <v>267.2724720434057</v>
+        <v>104.4567728712147</v>
       </c>
       <c r="R5">
-        <v>267.2724720434057</v>
+        <v>940.1109558409321</v>
       </c>
       <c r="S5">
-        <v>0.004369183560531842</v>
+        <v>0.001090408881402951</v>
       </c>
       <c r="T5">
-        <v>0.004369183560531842</v>
+        <v>0.001090408881402951</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>489.494463310833</v>
+        <v>46.08534733333334</v>
       </c>
       <c r="H6">
-        <v>489.494463310833</v>
+        <v>138.256042</v>
       </c>
       <c r="I6">
-        <v>0.8520238721113981</v>
+        <v>0.05552108878460485</v>
       </c>
       <c r="J6">
-        <v>0.8520238721113981</v>
+        <v>0.05552108878460485</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.86031452708108</v>
+        <v>9.460162333333333</v>
       </c>
       <c r="N6">
-        <v>8.86031452708108</v>
+        <v>28.380487</v>
       </c>
       <c r="O6">
-        <v>0.08321300777838372</v>
+        <v>0.08197024919772995</v>
       </c>
       <c r="P6">
-        <v>0.08321300777838372</v>
+        <v>0.08197024919772995</v>
       </c>
       <c r="Q6">
-        <v>4337.07490419873</v>
+        <v>435.9748669613838</v>
       </c>
       <c r="R6">
-        <v>4337.07490419873</v>
+        <v>3923.773802652454</v>
       </c>
       <c r="S6">
-        <v>0.07089946909737439</v>
+        <v>0.004551077483403349</v>
       </c>
       <c r="T6">
-        <v>0.07089946909737439</v>
+        <v>0.004551077483403349</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>489.494463310833</v>
+        <v>46.08534733333334</v>
       </c>
       <c r="H7">
-        <v>489.494463310833</v>
+        <v>138.256042</v>
       </c>
       <c r="I7">
-        <v>0.8520238721113981</v>
+        <v>0.05552108878460485</v>
       </c>
       <c r="J7">
-        <v>0.8520238721113981</v>
+        <v>0.05552108878460485</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>46.0976596177799</v>
+        <v>46.18256633333333</v>
       </c>
       <c r="N7">
-        <v>46.0976596177799</v>
+        <v>138.547699</v>
       </c>
       <c r="O7">
-        <v>0.4329332662644541</v>
+        <v>0.4001618933742075</v>
       </c>
       <c r="P7">
-        <v>0.4329332662644541</v>
+        <v>0.4001618933742075</v>
       </c>
       <c r="Q7">
-        <v>22564.54915449063</v>
+        <v>2128.339610216373</v>
       </c>
       <c r="R7">
-        <v>22564.54915449063</v>
+        <v>19155.05649194736</v>
       </c>
       <c r="S7">
-        <v>0.3688694778884751</v>
+        <v>0.02221742401024495</v>
       </c>
       <c r="T7">
-        <v>0.3688694778884751</v>
+        <v>0.02221742401024495</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>489.494463310833</v>
+        <v>46.08534733333334</v>
       </c>
       <c r="H8">
-        <v>489.494463310833</v>
+        <v>138.256042</v>
       </c>
       <c r="I8">
-        <v>0.8520238721113981</v>
+        <v>0.05552108878460485</v>
       </c>
       <c r="J8">
-        <v>0.8520238721113981</v>
+        <v>0.05552108878460485</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>45.6561722693769</v>
+        <v>51.40166966666666</v>
       </c>
       <c r="N8">
-        <v>45.6561722693769</v>
+        <v>154.205009</v>
       </c>
       <c r="O8">
-        <v>0.4287869698723305</v>
+        <v>0.4453842886934318</v>
       </c>
       <c r="P8">
-        <v>0.4287869698723305</v>
+        <v>0.4453842886934319</v>
       </c>
       <c r="Q8">
-        <v>22348.44354182558</v>
+        <v>2368.863800101597</v>
       </c>
       <c r="R8">
-        <v>22348.44354182558</v>
+        <v>21319.77420091438</v>
       </c>
       <c r="S8">
-        <v>0.3653367343815364</v>
+        <v>0.02472822063581611</v>
       </c>
       <c r="T8">
-        <v>0.3653367343815364</v>
+        <v>0.02472822063581611</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>489.494463310833</v>
+        <v>46.08534733333334</v>
       </c>
       <c r="H9">
-        <v>489.494463310833</v>
+        <v>138.256042</v>
       </c>
       <c r="I9">
-        <v>0.8520238721113981</v>
+        <v>0.05552108878460485</v>
       </c>
       <c r="J9">
-        <v>0.8520238721113981</v>
+        <v>0.05552108878460485</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.8633715079388</v>
+        <v>8.365307333333334</v>
       </c>
       <c r="N9">
-        <v>5.8633715079388</v>
+        <v>25.095922</v>
       </c>
       <c r="O9">
-        <v>0.05506675608483171</v>
+        <v>0.07248356873463072</v>
       </c>
       <c r="P9">
-        <v>0.05506675608483171</v>
+        <v>0.07248356873463073</v>
       </c>
       <c r="Q9">
-        <v>2870.087889470532</v>
+        <v>385.5180940067472</v>
       </c>
       <c r="R9">
-        <v>2870.087889470532</v>
+        <v>3469.662846060724</v>
       </c>
       <c r="S9">
-        <v>0.0469181907440122</v>
+        <v>0.00402436665514044</v>
       </c>
       <c r="T9">
-        <v>0.0469181907440122</v>
+        <v>0.004024366655140441</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>39.4300467868052</v>
+        <v>666.4749603333333</v>
       </c>
       <c r="H10">
-        <v>39.4300467868052</v>
+        <v>1999.424881</v>
       </c>
       <c r="I10">
-        <v>0.06863272959942356</v>
+        <v>0.8029323328679479</v>
       </c>
       <c r="J10">
-        <v>0.06863272959942356</v>
+        <v>0.8029323328679479</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.86031452708108</v>
+        <v>9.460162333333333</v>
       </c>
       <c r="N10">
-        <v>8.86031452708108</v>
+        <v>28.380487</v>
       </c>
       <c r="O10">
-        <v>0.08321300777838372</v>
+        <v>0.08197024919772995</v>
       </c>
       <c r="P10">
-        <v>0.08321300777838372</v>
+        <v>0.08197024919772995</v>
       </c>
       <c r="Q10">
-        <v>349.3626163486168</v>
+        <v>6304.961315855227</v>
       </c>
       <c r="R10">
-        <v>349.3626163486168</v>
+        <v>56744.65184269704</v>
       </c>
       <c r="S10">
-        <v>0.005711135862008539</v>
+        <v>0.06581656341410035</v>
       </c>
       <c r="T10">
-        <v>0.005711135862008539</v>
+        <v>0.06581656341410035</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>39.4300467868052</v>
+        <v>666.4749603333333</v>
       </c>
       <c r="H11">
-        <v>39.4300467868052</v>
+        <v>1999.424881</v>
       </c>
       <c r="I11">
-        <v>0.06863272959942356</v>
+        <v>0.8029323328679479</v>
       </c>
       <c r="J11">
-        <v>0.06863272959942356</v>
+        <v>0.8029323328679479</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>46.0976596177799</v>
+        <v>46.18256633333333</v>
       </c>
       <c r="N11">
-        <v>46.0976596177799</v>
+        <v>138.547699</v>
       </c>
       <c r="O11">
-        <v>0.4329332662644541</v>
+        <v>0.4001618933742075</v>
       </c>
       <c r="P11">
-        <v>0.4329332662644541</v>
+        <v>0.4001618933742075</v>
       </c>
       <c r="Q11">
-        <v>1817.632875491282</v>
+        <v>30779.52406509987</v>
       </c>
       <c r="R11">
-        <v>1817.632875491282</v>
+        <v>277015.7165858988</v>
       </c>
       <c r="S11">
-        <v>0.02971339179812352</v>
+        <v>0.3213029225718074</v>
       </c>
       <c r="T11">
-        <v>0.02971339179812352</v>
+        <v>0.3213029225718074</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>39.4300467868052</v>
+        <v>666.4749603333333</v>
       </c>
       <c r="H12">
-        <v>39.4300467868052</v>
+        <v>1999.424881</v>
       </c>
       <c r="I12">
-        <v>0.06863272959942356</v>
+        <v>0.8029323328679479</v>
       </c>
       <c r="J12">
-        <v>0.06863272959942356</v>
+        <v>0.8029323328679479</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>45.6561722693769</v>
+        <v>51.40166966666666</v>
       </c>
       <c r="N12">
-        <v>45.6561722693769</v>
+        <v>154.205009</v>
       </c>
       <c r="O12">
-        <v>0.4287869698723305</v>
+        <v>0.4453842886934318</v>
       </c>
       <c r="P12">
-        <v>0.4287869698723305</v>
+        <v>0.4453842886934319</v>
       </c>
       <c r="Q12">
-        <v>1800.225008687969</v>
+        <v>34257.92575215877</v>
       </c>
       <c r="R12">
-        <v>1800.225008687969</v>
+        <v>308321.3317694289</v>
       </c>
       <c r="S12">
-        <v>0.02942882015900384</v>
+        <v>0.3576134459433488</v>
       </c>
       <c r="T12">
-        <v>0.02942882015900384</v>
+        <v>0.3576134459433488</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>666.4749603333333</v>
+      </c>
+      <c r="H13">
+        <v>1999.424881</v>
+      </c>
+      <c r="I13">
+        <v>0.8029323328679479</v>
+      </c>
+      <c r="J13">
+        <v>0.8029323328679479</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.365307333333334</v>
+      </c>
+      <c r="N13">
+        <v>25.095922</v>
+      </c>
+      <c r="O13">
+        <v>0.07248356873463072</v>
+      </c>
+      <c r="P13">
+        <v>0.07248356873463073</v>
+      </c>
+      <c r="Q13">
+        <v>5575.267873159476</v>
+      </c>
+      <c r="R13">
+        <v>50177.41085843528</v>
+      </c>
+      <c r="S13">
+        <v>0.05819940093869129</v>
+      </c>
+      <c r="T13">
+        <v>0.0581994009386913</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>105.0040076666667</v>
+      </c>
+      <c r="H14">
+        <v>315.012023</v>
+      </c>
+      <c r="I14">
+        <v>0.1265030464071941</v>
+      </c>
+      <c r="J14">
+        <v>0.1265030464071941</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>9.460162333333333</v>
+      </c>
+      <c r="N14">
+        <v>28.380487</v>
+      </c>
+      <c r="O14">
+        <v>0.08197024919772995</v>
+      </c>
+      <c r="P14">
+        <v>0.08197024919772995</v>
+      </c>
+      <c r="Q14">
+        <v>993.3549581772445</v>
+      </c>
+      <c r="R14">
+        <v>8940.1946235952</v>
+      </c>
+      <c r="S14">
+        <v>0.0103694862382697</v>
+      </c>
+      <c r="T14">
+        <v>0.0103694862382697</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>105.0040076666667</v>
+      </c>
+      <c r="H15">
+        <v>315.012023</v>
+      </c>
+      <c r="I15">
+        <v>0.1265030464071941</v>
+      </c>
+      <c r="J15">
+        <v>0.1265030464071941</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>46.18256633333333</v>
+      </c>
+      <c r="N15">
+        <v>138.547699</v>
+      </c>
+      <c r="O15">
+        <v>0.4001618933742075</v>
+      </c>
+      <c r="P15">
+        <v>0.4001618933742075</v>
+      </c>
+      <c r="Q15">
+        <v>4849.354549331675</v>
+      </c>
+      <c r="R15">
+        <v>43644.19094398507</v>
+      </c>
+      <c r="S15">
+        <v>0.05062169856790805</v>
+      </c>
+      <c r="T15">
+        <v>0.05062169856790805</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>39.4300467868052</v>
-      </c>
-      <c r="H13">
-        <v>39.4300467868052</v>
-      </c>
-      <c r="I13">
-        <v>0.06863272959942356</v>
-      </c>
-      <c r="J13">
-        <v>0.06863272959942356</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>5.8633715079388</v>
-      </c>
-      <c r="N13">
-        <v>5.8633715079388</v>
-      </c>
-      <c r="O13">
-        <v>0.05506675608483171</v>
-      </c>
-      <c r="P13">
-        <v>0.05506675608483171</v>
-      </c>
-      <c r="Q13">
-        <v>231.1930128864475</v>
-      </c>
-      <c r="R13">
-        <v>231.1930128864475</v>
-      </c>
-      <c r="S13">
-        <v>0.003779381780287667</v>
-      </c>
-      <c r="T13">
-        <v>0.003779381780287667</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>105.0040076666667</v>
+      </c>
+      <c r="H16">
+        <v>315.012023</v>
+      </c>
+      <c r="I16">
+        <v>0.1265030464071941</v>
+      </c>
+      <c r="J16">
+        <v>0.1265030464071941</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>51.40166966666666</v>
+      </c>
+      <c r="N16">
+        <v>154.205009</v>
+      </c>
+      <c r="O16">
+        <v>0.4453842886934318</v>
+      </c>
+      <c r="P16">
+        <v>0.4453842886934319</v>
+      </c>
+      <c r="Q16">
+        <v>5397.381315758133</v>
+      </c>
+      <c r="R16">
+        <v>48576.43184182321</v>
+      </c>
+      <c r="S16">
+        <v>0.05634246934162036</v>
+      </c>
+      <c r="T16">
+        <v>0.05634246934162037</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>105.0040076666667</v>
+      </c>
+      <c r="H17">
+        <v>315.012023</v>
+      </c>
+      <c r="I17">
+        <v>0.1265030464071941</v>
+      </c>
+      <c r="J17">
+        <v>0.1265030464071941</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>8.365307333333334</v>
+      </c>
+      <c r="N17">
+        <v>25.095922</v>
+      </c>
+      <c r="O17">
+        <v>0.07248356873463072</v>
+      </c>
+      <c r="P17">
+        <v>0.07248356873463073</v>
+      </c>
+      <c r="Q17">
+        <v>878.3907953633562</v>
+      </c>
+      <c r="R17">
+        <v>7905.517158270207</v>
+      </c>
+      <c r="S17">
+        <v>0.009169392259396036</v>
+      </c>
+      <c r="T17">
+        <v>0.009169392259396038</v>
       </c>
     </row>
   </sheetData>
